--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_2_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_2_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.938031900957444</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053494350468704</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98965116739703</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201606</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5693903185487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315480781135</v>
+        <v>1.031611214669994</v>
       </c>
       <c r="O3">
-        <v>7.416880751281505E-06</v>
+        <v>0.291705603751288</v>
       </c>
       <c r="P3">
-        <v>0.952624415924915</v>
+        <v>0.8906876332644358</v>
       </c>
       <c r="Q3">
-        <v>-1.570098140346983E-06</v>
+        <v>7.091324389062285</v>
       </c>
       <c r="R3">
-        <v>164.0728036020161</v>
+        <v>-119.1713773550814</v>
       </c>
       <c r="S3">
-        <v>-179.9998791560808</v>
+        <v>171.7794727726618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -834,55 +834,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.709154423937111</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.709154423937111</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.82962610251964</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.82962610251964</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>0.9526315480870373</v>
+        <v>0.9526279648032102</v>
       </c>
       <c r="O4">
-        <v>7.416902230344108E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526244159159912</v>
+        <v>0.9526279648047542</v>
       </c>
       <c r="Q4">
-        <v>-1.570571175414165E-06</v>
+        <v>-1.288132274128511E-11</v>
       </c>
       <c r="R4">
-        <v>164.0727245871005</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999808</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -926,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315480781135</v>
+        <v>0.9526279647942865</v>
       </c>
       <c r="O5">
-        <v>7.416880751316684E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159249151</v>
+        <v>0.9526279648136781</v>
       </c>
       <c r="Q5">
-        <v>-1.570098142339182E-06</v>
+        <v>4.601523003742656E-10</v>
       </c>
       <c r="R5">
-        <v>164.0728036010638</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791560808</v>
+        <v>179.9999999995316</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315480781135</v>
+        <v>0.9526279647942866</v>
       </c>
       <c r="O6">
-        <v>7.416880751316684E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526244159249151</v>
+        <v>0.9526279648136781</v>
       </c>
       <c r="Q6">
-        <v>-1.570098142339182E-06</v>
+        <v>4.601483851772018E-10</v>
       </c>
       <c r="R6">
-        <v>164.0728036010638</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998791560808</v>
+        <v>179.9999999995316</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.78162348160748</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315479268617</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>7.416506852477948E-06</v>
+        <v>0.7617779018710709</v>
       </c>
       <c r="P3">
-        <v>0.9526244160761671</v>
+        <v>0.9348070984869512</v>
       </c>
       <c r="Q3">
-        <v>-1.561001376050762E-06</v>
+        <v>19.43181595267032</v>
       </c>
       <c r="R3">
-        <v>164.0744095174339</v>
+        <v>-104.2565908665023</v>
       </c>
       <c r="S3">
-        <v>-179.9998791651778</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1201,55 +1201,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.35837104744287</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>20.35837104744287</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>0.9526315479357855</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>7.416528331201091E-06</v>
+        <v>0.6233452632551798</v>
       </c>
       <c r="P4">
-        <v>0.9526244160672434</v>
+        <v>0.9229411060011522</v>
       </c>
       <c r="Q4">
-        <v>-1.561474407258607E-06</v>
+        <v>16.25665454943068</v>
       </c>
       <c r="R4">
-        <v>164.0743304953124</v>
+        <v>-104.9129785376845</v>
       </c>
       <c r="S4">
-        <v>-179.9998791647048</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315479268617</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O5">
-        <v>7.41650685246036E-06</v>
+        <v>0.623345263256873</v>
       </c>
       <c r="P5">
-        <v>0.9526244160761671</v>
+        <v>0.9229411060067891</v>
       </c>
       <c r="Q5">
-        <v>-1.561001378037557E-06</v>
+        <v>16.25665454962335</v>
       </c>
       <c r="R5">
-        <v>164.0744095179101</v>
+        <v>-104.9129785366569</v>
       </c>
       <c r="S5">
-        <v>-179.9998791651778</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479268617</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O6">
-        <v>7.41650685246036E-06</v>
+        <v>0.6233452632568729</v>
       </c>
       <c r="P6">
-        <v>0.9526244160761671</v>
+        <v>0.922941106006789</v>
       </c>
       <c r="Q6">
-        <v>-1.561001378037557E-06</v>
+        <v>16.25665454962334</v>
       </c>
       <c r="R6">
-        <v>164.0744095179101</v>
+        <v>-104.9129785366569</v>
       </c>
       <c r="S6">
-        <v>-179.9998791651778</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.78162348160748</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315479268617</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>7.416506852477948E-06</v>
+        <v>0.7617779018710709</v>
       </c>
       <c r="P3">
-        <v>0.9526244160761671</v>
+        <v>0.9348070984869512</v>
       </c>
       <c r="Q3">
-        <v>-1.561001376050762E-06</v>
+        <v>19.43181595267032</v>
       </c>
       <c r="R3">
-        <v>164.0744095174339</v>
+        <v>-104.2565908665023</v>
       </c>
       <c r="S3">
-        <v>-179.9998791651778</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1568,55 +1568,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.35837104744287</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>20.35837104744287</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>0.9526315479357855</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>7.416528331201091E-06</v>
+        <v>0.6233452632551798</v>
       </c>
       <c r="P4">
-        <v>0.9526244160672434</v>
+        <v>0.9229411060011522</v>
       </c>
       <c r="Q4">
-        <v>-1.561474407258607E-06</v>
+        <v>16.25665454943068</v>
       </c>
       <c r="R4">
-        <v>164.0743304953124</v>
+        <v>-104.9129785376845</v>
       </c>
       <c r="S4">
-        <v>-179.9998791647048</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315479268617</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O5">
-        <v>7.41650685246036E-06</v>
+        <v>0.623345263256873</v>
       </c>
       <c r="P5">
-        <v>0.9526244160761671</v>
+        <v>0.9229411060067891</v>
       </c>
       <c r="Q5">
-        <v>-1.561001378037557E-06</v>
+        <v>16.25665454962335</v>
       </c>
       <c r="R5">
-        <v>164.0744095179101</v>
+        <v>-104.9129785366569</v>
       </c>
       <c r="S5">
-        <v>-179.9998791651778</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479268617</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O6">
-        <v>7.41650685246036E-06</v>
+        <v>0.6233452632568729</v>
       </c>
       <c r="P6">
-        <v>0.9526244160761671</v>
+        <v>0.922941106006789</v>
       </c>
       <c r="Q6">
-        <v>-1.561001378037557E-06</v>
+        <v>16.25665454962334</v>
       </c>
       <c r="R6">
-        <v>164.0744095179101</v>
+        <v>-104.9129785366569</v>
       </c>
       <c r="S6">
-        <v>-179.9998791651778</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414033</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9468598309457222</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60992326808856</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331509</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270206996352</v>
+        <v>0.9900703401370778</v>
       </c>
       <c r="O3">
-        <v>6.863576473346857E-06</v>
+        <v>0.3617201835030139</v>
       </c>
       <c r="P3">
-        <v>0.8660263868538358</v>
+        <v>0.7649715466411139</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987105177097657</v>
+        <v>8.150888684274678</v>
       </c>
       <c r="R3">
-        <v>95.29869671803198</v>
+        <v>-129.0915432241883</v>
       </c>
       <c r="S3">
-        <v>-179.9998465610983</v>
+        <v>169.4262793833643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1935,55 +1935,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.01610081973838</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.01610081973838</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037880046</v>
       </c>
       <c r="O4">
-        <v>6.863605310523003E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037883355</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987114259499269</v>
+        <v>1.726615751902554E-10</v>
       </c>
       <c r="R4">
-        <v>95.29881041745911</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.99984656019</v>
+        <v>179.9999999998192</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270206996352</v>
+        <v>0.8660254037798921</v>
       </c>
       <c r="O5">
-        <v>6.863576473480426E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868538357</v>
+        <v>0.8660254037964481</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987105177194564</v>
+        <v>1.080896609359226E-09</v>
       </c>
       <c r="R5">
-        <v>95.29869671846595</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998465610983</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206996352</v>
+        <v>0.8660254037798921</v>
       </c>
       <c r="O6">
-        <v>6.863576473480426E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660263868538357</v>
+        <v>0.8660254037964481</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987105177194564</v>
+        <v>1.08089360288137E-09</v>
       </c>
       <c r="R6">
-        <v>95.29869671846595</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998465610983</v>
+        <v>179.999999998911</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414033</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9468598309457222</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60992326808856</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331509</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2276,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270206996352</v>
+        <v>0.9900703401370778</v>
       </c>
       <c r="O3">
-        <v>6.863576473346857E-06</v>
+        <v>0.3617201835030139</v>
       </c>
       <c r="P3">
-        <v>0.8660263868538358</v>
+        <v>0.7649715466411139</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987105177097657</v>
+        <v>8.150888684274678</v>
       </c>
       <c r="R3">
-        <v>95.29869671803198</v>
+        <v>-129.0915432241883</v>
       </c>
       <c r="S3">
-        <v>-179.9998465610983</v>
+        <v>169.4262793833643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2302,55 +2302,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.01610081973838</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.01610081973838</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037880046</v>
       </c>
       <c r="O4">
-        <v>6.863605310523003E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037883355</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987114259499269</v>
+        <v>1.726615751902554E-10</v>
       </c>
       <c r="R4">
-        <v>95.29881041745911</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.99984656019</v>
+        <v>179.9999999998192</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270206996352</v>
+        <v>0.8660254037798921</v>
       </c>
       <c r="O5">
-        <v>6.863576473480426E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868538357</v>
+        <v>0.8660254037964481</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987105177194564</v>
+        <v>1.080896609359226E-09</v>
       </c>
       <c r="R5">
-        <v>95.29869671846595</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998465610983</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206996352</v>
+        <v>0.8660254037798921</v>
       </c>
       <c r="O6">
-        <v>6.863576473480426E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660263868538357</v>
+        <v>0.8660254037964481</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987105177194564</v>
+        <v>1.08089360288137E-09</v>
       </c>
       <c r="R6">
-        <v>95.29869671846595</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998465610983</v>
+        <v>179.999999998911</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9333641900095899</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9681777323222123</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270205621343</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>6.863277255294407E-06</v>
+        <v>0.7086876959566598</v>
       </c>
       <c r="P3">
-        <v>0.8660263869913359</v>
+        <v>0.8449321159941331</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987014207517727</v>
+        <v>19.61176266474873</v>
       </c>
       <c r="R3">
-        <v>95.29662278489859</v>
+        <v>-105.2709110729076</v>
       </c>
       <c r="S3">
-        <v>-179.9998465701952</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2669,55 +2669,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17.531800250406</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.531800250406</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>0.8660270205702468</v>
+        <v>0.9573399675119602</v>
       </c>
       <c r="O4">
-        <v>6.86330609190778E-06</v>
+        <v>0.5367995610775473</v>
       </c>
       <c r="P4">
-        <v>0.8660263869832234</v>
+        <v>0.8529812840863322</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987023289919306</v>
+        <v>15.93288697155601</v>
       </c>
       <c r="R4">
-        <v>95.29673649751309</v>
+        <v>-101.7238138495562</v>
       </c>
       <c r="S4">
-        <v>-179.999846569287</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270205621345</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O5">
-        <v>6.863277255427973E-06</v>
+        <v>0.5367995610863953</v>
       </c>
       <c r="P5">
-        <v>0.8660263869913359</v>
+        <v>0.852981284093152</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987014207572191</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R5">
-        <v>95.29662278533262</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S5">
-        <v>-179.9998465701952</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205621345</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O6">
-        <v>6.863277255427973E-06</v>
+        <v>0.5367995610863951</v>
       </c>
       <c r="P6">
-        <v>0.8660263869913359</v>
+        <v>0.852981284093152</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987014207572191</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R6">
-        <v>95.29662278533262</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S6">
-        <v>-179.9998465701952</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9333641900095899</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9681777323222123</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270205621343</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>6.863277255294407E-06</v>
+        <v>0.7086876959566598</v>
       </c>
       <c r="P3">
-        <v>0.8660263869913359</v>
+        <v>0.8449321159941331</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987014207517727</v>
+        <v>19.61176266474873</v>
       </c>
       <c r="R3">
-        <v>95.29662278489859</v>
+        <v>-105.2709110729076</v>
       </c>
       <c r="S3">
-        <v>-179.9998465701952</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3036,55 +3036,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17.531800250406</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.531800250406</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>0.8660270205702468</v>
+        <v>0.9573399675119602</v>
       </c>
       <c r="O4">
-        <v>6.86330609190778E-06</v>
+        <v>0.5367995610775473</v>
       </c>
       <c r="P4">
-        <v>0.8660263869832234</v>
+        <v>0.8529812840863322</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987023289919306</v>
+        <v>15.93288697155601</v>
       </c>
       <c r="R4">
-        <v>95.29673649751309</v>
+        <v>-101.7238138495562</v>
       </c>
       <c r="S4">
-        <v>-179.999846569287</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3128,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270205621345</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O5">
-        <v>6.863277255427973E-06</v>
+        <v>0.5367995610863953</v>
       </c>
       <c r="P5">
-        <v>0.8660263869913359</v>
+        <v>0.852981284093152</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987014207572191</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R5">
-        <v>95.29662278533262</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S5">
-        <v>-179.9998465701952</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205621345</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O6">
-        <v>6.863277255427973E-06</v>
+        <v>0.5367995610863951</v>
       </c>
       <c r="P6">
-        <v>0.8660263869913359</v>
+        <v>0.852981284093152</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987014207572191</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R6">
-        <v>95.29662278533262</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S6">
-        <v>-179.9998465701952</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100881007419866</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100991199706476</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96690550936296</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0231504071433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3377,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999519801443</v>
+        <v>1.104800979796155</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P3">
-        <v>0.5500000334040064</v>
+        <v>1.105077276487838</v>
       </c>
       <c r="Q3">
-        <v>89.99981984327017</v>
+        <v>29.8397599464067</v>
       </c>
       <c r="R3">
-        <v>-90.0001801508255</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>89.99981985506422</v>
+        <v>150.1352762386222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.04937938678207351</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5701840450209759</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3418,40 +3418,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.307396799325943</v>
+        <v>0.3084960236668108</v>
       </c>
       <c r="I4">
-        <v>-777.4775867703028</v>
+        <v>-777.4759689653404</v>
       </c>
       <c r="J4">
-        <v>9090933494.566628</v>
+        <v>0.6277319161820061</v>
       </c>
       <c r="K4">
-        <v>-13813.63815329969</v>
+        <v>2.898438697956479</v>
       </c>
       <c r="L4">
-        <v>9090932858.718199</v>
+        <v>0.6277319163747186</v>
       </c>
       <c r="M4">
-        <v>-70981.32027871907</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.5499999519646877</v>
+        <v>1.105423527681918</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P4">
-        <v>0.550000033419463</v>
+        <v>1.106979109033038</v>
       </c>
       <c r="Q4">
-        <v>89.99981984468928</v>
+        <v>29.7444040478583</v>
       </c>
       <c r="R4">
-        <v>-90.0001801508255</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>89.99981985364511</v>
+        <v>150.1149940250913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999519801442</v>
+        <v>1.105423527681761</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P5">
-        <v>0.5500000334040064</v>
+        <v>1.106979109032973</v>
       </c>
       <c r="Q5">
-        <v>89.99981984327017</v>
+        <v>29.74440404785736</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082551</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>89.9998198550642</v>
+        <v>150.1149940250838</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999519801442</v>
+        <v>1.105423527681761</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P6">
-        <v>0.5500000334040064</v>
+        <v>1.106979109032973</v>
       </c>
       <c r="Q6">
-        <v>89.99981984327017</v>
+        <v>29.74440404785737</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082551</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>89.9998198550642</v>
+        <v>150.1149940250838</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100881007419866</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100991199706476</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96690550936296</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0231504071433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999519801443</v>
+        <v>1.104800979796155</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P3">
-        <v>0.5500000334040064</v>
+        <v>1.105077276487838</v>
       </c>
       <c r="Q3">
-        <v>89.99981984327017</v>
+        <v>29.8397599464067</v>
       </c>
       <c r="R3">
-        <v>-90.0001801508255</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>89.99981985506422</v>
+        <v>150.1352762386222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.04937938678207351</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5701840450209759</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3785,40 +3785,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.307396799325943</v>
+        <v>0.3084960236668108</v>
       </c>
       <c r="I4">
-        <v>-777.4775867703028</v>
+        <v>-777.4759689653404</v>
       </c>
       <c r="J4">
-        <v>9090933494.566628</v>
+        <v>0.6277319161820061</v>
       </c>
       <c r="K4">
-        <v>-13813.63815329969</v>
+        <v>2.898438697956479</v>
       </c>
       <c r="L4">
-        <v>9090932858.718199</v>
+        <v>0.6277319163747186</v>
       </c>
       <c r="M4">
-        <v>-70981.32027871907</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.5499999519646877</v>
+        <v>1.105423527681918</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P4">
-        <v>0.550000033419463</v>
+        <v>1.106979109033038</v>
       </c>
       <c r="Q4">
-        <v>89.99981984468928</v>
+        <v>29.7444040478583</v>
       </c>
       <c r="R4">
-        <v>-90.0001801508255</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>89.99981985364511</v>
+        <v>150.1149940250913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999519801442</v>
+        <v>1.105423527681761</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P5">
-        <v>0.5500000334040064</v>
+        <v>1.106979109032973</v>
       </c>
       <c r="Q5">
-        <v>89.99981984327017</v>
+        <v>29.74440404785736</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082551</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>89.9998198550642</v>
+        <v>150.1149940250838</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999519801442</v>
+        <v>1.105423527681761</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841814</v>
       </c>
       <c r="P6">
-        <v>0.5500000334040064</v>
+        <v>1.106979109032973</v>
       </c>
       <c r="Q6">
-        <v>89.99981984327017</v>
+        <v>29.74440404785737</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082551</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>89.9998198550642</v>
+        <v>150.1149940250838</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100885220302617</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101019409937636</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96533607622251</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0225541880429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999527660645</v>
+        <v>1.104831828246892</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.5500000326180852</v>
+        <v>1.105228321111362</v>
       </c>
       <c r="Q3">
-        <v>89.99981976139945</v>
+        <v>29.83162237124672</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>89.99981993693545</v>
+        <v>150.132552940022</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.05034629945673617</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5813489908809628</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4152,40 +4152,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.307396799325943</v>
+        <v>0.3084960236668108</v>
       </c>
       <c r="I4">
-        <v>-777.4775867703028</v>
+        <v>-777.4759689653404</v>
       </c>
       <c r="J4">
-        <v>9090933494.566628</v>
+        <v>0.6277319161820061</v>
       </c>
       <c r="K4">
-        <v>-13813.63815329969</v>
+        <v>2.898438697956479</v>
       </c>
       <c r="L4">
-        <v>9090932858.718199</v>
+        <v>0.6277319163747186</v>
       </c>
       <c r="M4">
-        <v>-70981.32027871907</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.549999952750608</v>
+        <v>1.105429510636891</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.5500000326335418</v>
+        <v>1.107159114028574</v>
       </c>
       <c r="Q4">
-        <v>89.99981976281856</v>
+        <v>29.73377162878689</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082524</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>89.99981993551634</v>
+        <v>150.1098930495413</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999527660645</v>
+        <v>1.10542951063673</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.5500000326180852</v>
+        <v>1.107159114028506</v>
       </c>
       <c r="Q5">
-        <v>89.99981976139946</v>
+        <v>29.7337716287861</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>89.99981993693544</v>
+        <v>150.1098930495337</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999527660645</v>
+        <v>1.10542951063673</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.5500000326180852</v>
+        <v>1.107159114028506</v>
       </c>
       <c r="Q6">
-        <v>89.99981976139946</v>
+        <v>29.7337716287861</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>89.99981993693544</v>
+        <v>150.1098930495337</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100885220302617</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101019409937636</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96533607622251</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0225541880429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4629,22 +4629,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999527660645</v>
+        <v>1.104831828246892</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.5500000326180852</v>
+        <v>1.105228321111362</v>
       </c>
       <c r="Q3">
-        <v>89.99981976139945</v>
+        <v>29.83162237124672</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>89.99981993693545</v>
+        <v>150.132552940022</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.05034629945673617</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5813489908809628</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4670,40 +4670,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.307396799325943</v>
+        <v>0.3084960236668108</v>
       </c>
       <c r="I4">
-        <v>-777.4775867703028</v>
+        <v>-777.4759689653404</v>
       </c>
       <c r="J4">
-        <v>9090933494.566628</v>
+        <v>0.6277319161820061</v>
       </c>
       <c r="K4">
-        <v>-13813.63815329969</v>
+        <v>2.898438697956479</v>
       </c>
       <c r="L4">
-        <v>9090932858.718199</v>
+        <v>0.6277319163747186</v>
       </c>
       <c r="M4">
-        <v>-70981.32027871907</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.549999952750608</v>
+        <v>1.105429510636891</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.5500000326335418</v>
+        <v>1.107159114028574</v>
       </c>
       <c r="Q4">
-        <v>89.99981976281856</v>
+        <v>29.73377162878689</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082524</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>89.99981993551634</v>
+        <v>150.1098930495413</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4747,22 +4747,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999527660645</v>
+        <v>1.10542951063673</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.5500000326180852</v>
+        <v>1.107159114028506</v>
       </c>
       <c r="Q5">
-        <v>89.99981976139946</v>
+        <v>29.7337716287861</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>89.99981993693544</v>
+        <v>150.1098930495337</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999527660645</v>
+        <v>1.10542951063673</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.5500000326180852</v>
+        <v>1.107159114028506</v>
       </c>
       <c r="Q6">
-        <v>89.99981976139946</v>
+        <v>29.7337716287861</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082524</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>89.99981993693544</v>
+        <v>150.1098930495337</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000909313152204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001024982266088</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96230159863792</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0262157962094</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4996,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999317419825</v>
+        <v>1.004562394922651</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P3">
-        <v>0.5000000058056507</v>
+        <v>1.004839895494583</v>
       </c>
       <c r="Q3">
-        <v>89.99981742245309</v>
+        <v>29.83154354001176</v>
       </c>
       <c r="R3">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>89.99981743650393</v>
+        <v>150.1408747052281</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0449026878606252</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.518491578473394</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5037,40 +5037,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5913835018873215</v>
+        <v>0.5918683474339974</v>
       </c>
       <c r="I4">
-        <v>-777.4814956504173</v>
+        <v>-777.4762970003314</v>
       </c>
       <c r="J4">
-        <v>9090950373.224354</v>
+        <v>1.113751880187841</v>
       </c>
       <c r="K4">
-        <v>53008.32629129291</v>
+        <v>3.006397543742051</v>
       </c>
       <c r="L4">
-        <v>9090949237.491137</v>
+        <v>1.113751880243463</v>
       </c>
       <c r="M4">
-        <v>-4927.530139312148</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="N4">
-        <v>0.4999999317279312</v>
+        <v>1.004590300144623</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P4">
-        <v>0.5000000058197021</v>
+        <v>1.007100798228897</v>
       </c>
       <c r="Q4">
-        <v>89.99981742517777</v>
+        <v>29.68305168892623</v>
       </c>
       <c r="R4">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>89.99981743377926</v>
+        <v>150.067327329338</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999317419825</v>
+        <v>1.004590300144407</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P5">
-        <v>0.5000000058056507</v>
+        <v>1.007100798228721</v>
       </c>
       <c r="Q5">
-        <v>89.99981742245308</v>
+        <v>29.68305168893063</v>
       </c>
       <c r="R5">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981743650393</v>
+        <v>150.0673273293296</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999317419825</v>
+        <v>1.004590300144407</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P6">
-        <v>0.5000000058056507</v>
+        <v>1.007100798228721</v>
       </c>
       <c r="Q6">
-        <v>89.99981742245308</v>
+        <v>29.68305168893063</v>
       </c>
       <c r="R6">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>89.99981743650393</v>
+        <v>150.0673273293296</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000909313152204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001024982266088</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96230159863792</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0262157962094</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5363,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999317419825</v>
+        <v>1.004562394922651</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P3">
-        <v>0.5000000058056507</v>
+        <v>1.004839895494583</v>
       </c>
       <c r="Q3">
-        <v>89.99981742245309</v>
+        <v>29.83154354001176</v>
       </c>
       <c r="R3">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>89.99981743650393</v>
+        <v>150.1408747052281</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0449026878606252</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.518491578473394</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5404,40 +5404,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5913835018873215</v>
+        <v>0.5918683474339974</v>
       </c>
       <c r="I4">
-        <v>-777.4814956504173</v>
+        <v>-777.4762970003314</v>
       </c>
       <c r="J4">
-        <v>9090950373.224354</v>
+        <v>1.113751880187841</v>
       </c>
       <c r="K4">
-        <v>53008.32629129291</v>
+        <v>3.006397543742051</v>
       </c>
       <c r="L4">
-        <v>9090949237.491137</v>
+        <v>1.113751880243463</v>
       </c>
       <c r="M4">
-        <v>-4927.530139312148</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="N4">
-        <v>0.4999999317279312</v>
+        <v>1.004590300144623</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P4">
-        <v>0.5000000058197021</v>
+        <v>1.007100798228897</v>
       </c>
       <c r="Q4">
-        <v>89.99981742517777</v>
+        <v>29.68305168892623</v>
       </c>
       <c r="R4">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>89.99981743377926</v>
+        <v>150.067327329338</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5481,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999317419825</v>
+        <v>1.004590300144407</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P5">
-        <v>0.5000000058056507</v>
+        <v>1.007100798228721</v>
       </c>
       <c r="Q5">
-        <v>89.99981742245308</v>
+        <v>29.68305168893063</v>
       </c>
       <c r="R5">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981743650393</v>
+        <v>150.0673273293296</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999317419825</v>
+        <v>1.004590300144407</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476333</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P6">
-        <v>0.5000000058056507</v>
+        <v>1.007100798228721</v>
       </c>
       <c r="Q6">
-        <v>89.99981742245308</v>
+        <v>29.68305168893063</v>
       </c>
       <c r="R6">
-        <v>-90.0001825705142</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>89.99981743650393</v>
+        <v>150.0673273293296</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000913567484937</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999968</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001054100499085</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96051662341521</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0255324262917</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5730,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999324564476</v>
+        <v>1.004591137747316</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P3">
-        <v>0.5000000050911879</v>
+        <v>1.004983488546412</v>
       </c>
       <c r="Q3">
-        <v>89.99981734058102</v>
+        <v>29.82301522010362</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>89.99981751837635</v>
+        <v>150.1379865567837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,7 +5753,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0457806742059025</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5286296915292072</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5771,40 +5771,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5913835018873215</v>
+        <v>0.5918683474339974</v>
       </c>
       <c r="I4">
-        <v>-777.4814956504173</v>
+        <v>-777.4762970003314</v>
       </c>
       <c r="J4">
-        <v>9090950373.224354</v>
+        <v>1.113751880187841</v>
       </c>
       <c r="K4">
-        <v>53008.32629129291</v>
+        <v>3.006397543742051</v>
       </c>
       <c r="L4">
-        <v>9090949237.491137</v>
+        <v>1.113751880243463</v>
       </c>
       <c r="M4">
-        <v>-4927.530139312148</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="N4">
-        <v>0.4999999324423963</v>
+        <v>1.004567232830903</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P4">
-        <v>0.5000000051052395</v>
+        <v>1.007262064920124</v>
       </c>
       <c r="Q4">
-        <v>89.99981734330572</v>
+        <v>29.67161776338459</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>89.99981751565166</v>
+        <v>150.0604266616333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5848,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999324564475</v>
+        <v>1.004567232830684</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P5">
-        <v>0.500000005091188</v>
+        <v>1.007262064919942</v>
       </c>
       <c r="Q5">
-        <v>89.99981734058102</v>
+        <v>29.67161776338933</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>89.99981751837635</v>
+        <v>150.060426661625</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999324564475</v>
+        <v>1.004567232830684</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476356</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.500000005091188</v>
+        <v>1.007262064919942</v>
       </c>
       <c r="Q6">
-        <v>89.99981734058102</v>
+        <v>29.67161776338932</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>89.99981751837635</v>
+        <v>150.060426661625</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000913567484937</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999968</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001054100499085</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96051662341521</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0255324262917</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6097,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999324564476</v>
+        <v>1.004591137747316</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P3">
-        <v>0.5000000050911879</v>
+        <v>1.004983488546412</v>
       </c>
       <c r="Q3">
-        <v>89.99981734058102</v>
+        <v>29.82301522010362</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>89.99981751837635</v>
+        <v>150.1379865567837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0457806742059025</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5286296915292072</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6138,40 +6138,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5913835018873215</v>
+        <v>0.5918683474339974</v>
       </c>
       <c r="I4">
-        <v>-777.4814956504173</v>
+        <v>-777.4762970003314</v>
       </c>
       <c r="J4">
-        <v>9090950373.224354</v>
+        <v>1.113751880187841</v>
       </c>
       <c r="K4">
-        <v>53008.32629129291</v>
+        <v>3.006397543742051</v>
       </c>
       <c r="L4">
-        <v>9090949237.491137</v>
+        <v>1.113751880243463</v>
       </c>
       <c r="M4">
-        <v>-4927.530139312148</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="N4">
-        <v>0.4999999324423963</v>
+        <v>1.004567232830903</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P4">
-        <v>0.5000000051052395</v>
+        <v>1.007262064920124</v>
       </c>
       <c r="Q4">
-        <v>89.99981734330572</v>
+        <v>29.67161776338459</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>89.99981751565166</v>
+        <v>150.0604266616333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999324564475</v>
+        <v>1.004567232830684</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476356</v>
+        <v>0.9999999999999502</v>
       </c>
       <c r="P5">
-        <v>0.500000005091188</v>
+        <v>1.007262064919942</v>
       </c>
       <c r="Q5">
-        <v>89.99981734058102</v>
+        <v>29.67161776338933</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>89.99981751837635</v>
+        <v>150.060426661625</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999324564475</v>
+        <v>1.004567232830684</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476356</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.500000005091188</v>
+        <v>1.007262064919942</v>
       </c>
       <c r="Q6">
-        <v>89.99981734058102</v>
+        <v>29.67161776338932</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051401</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>89.99981751837635</v>
+        <v>150.060426661625</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070323897229106</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574331</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053747029155864</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98204453736021</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201577</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5745746571997</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.496862373269244E-06</v>
+        <v>1.033008933983395</v>
       </c>
       <c r="O3">
-        <v>7.416898680502276E-06</v>
+        <v>0.2917056037512499</v>
       </c>
       <c r="P3">
-        <v>6.470483758415514E-06</v>
+        <v>0.8920995352338393</v>
       </c>
       <c r="Q3">
-        <v>-62.07229104897541</v>
+        <v>7.077920967795377</v>
       </c>
       <c r="R3">
-        <v>164.0727337351698</v>
+        <v>-119.1713773550765</v>
       </c>
       <c r="S3">
-        <v>-6.324512031628659</v>
+        <v>171.7882083906189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6490,55 +6490,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.71178180962163</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.706565831726871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.85996453916409</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.79973561433156</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>1.4968807780887E-06</v>
+        <v>0.9544067527128247</v>
       </c>
       <c r="O4">
-        <v>7.416920159383715E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6.470505331067563E-06</v>
+        <v>0.9544067527144178</v>
       </c>
       <c r="Q4">
-        <v>-62.07286803986988</v>
+        <v>-0.02321586891354222</v>
       </c>
       <c r="R4">
-        <v>164.0726547222803</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-6.324423224131506</v>
+        <v>179.976784131105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.496862373324358E-06</v>
+        <v>0.9544067527038662</v>
       </c>
       <c r="O5">
-        <v>7.416898680581503E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.470483758359481E-06</v>
+        <v>0.9544067527233131</v>
       </c>
       <c r="Q5">
-        <v>-62.07229104453984</v>
+        <v>-0.02321586844300205</v>
       </c>
       <c r="R5">
-        <v>164.0727337348295</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.324512032304414</v>
+        <v>179.9767841306317</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496862373324358E-06</v>
+        <v>0.9544067527038662</v>
       </c>
       <c r="O6">
-        <v>7.416898680581503E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.470483758359481E-06</v>
+        <v>0.9544067527233131</v>
       </c>
       <c r="Q6">
-        <v>-62.07229104453984</v>
+        <v>-0.02321586844300443</v>
       </c>
       <c r="R6">
-        <v>164.0727337348295</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-6.324512032304414</v>
+        <v>179.9767841306317</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070323897229106</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574331</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053747029155864</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98204453736021</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201577</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5745746571997</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6831,22 +6831,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.496862373269244E-06</v>
+        <v>1.033008933983395</v>
       </c>
       <c r="O3">
-        <v>7.416898680502276E-06</v>
+        <v>0.2917056037512499</v>
       </c>
       <c r="P3">
-        <v>6.470483758415514E-06</v>
+        <v>0.8920995352338393</v>
       </c>
       <c r="Q3">
-        <v>-62.07229104897541</v>
+        <v>7.077920967795377</v>
       </c>
       <c r="R3">
-        <v>164.0727337351698</v>
+        <v>-119.1713773550765</v>
       </c>
       <c r="S3">
-        <v>-6.324512031628659</v>
+        <v>171.7882083906189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6857,55 +6857,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.71178180962163</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.706565831726871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.85996453916409</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.79973561433156</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>1.4968807780887E-06</v>
+        <v>0.9544067527128247</v>
       </c>
       <c r="O4">
-        <v>7.416920159383715E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6.470505331067563E-06</v>
+        <v>0.9544067527144178</v>
       </c>
       <c r="Q4">
-        <v>-62.07286803986988</v>
+        <v>-0.02321586891354222</v>
       </c>
       <c r="R4">
-        <v>164.0726547222803</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-6.324423224131506</v>
+        <v>179.976784131105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6949,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.496862373324358E-06</v>
+        <v>0.9544067527038662</v>
       </c>
       <c r="O5">
-        <v>7.416898680581503E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.470483758359481E-06</v>
+        <v>0.9544067527233131</v>
       </c>
       <c r="Q5">
-        <v>-62.07229104453984</v>
+        <v>-0.02321586844300205</v>
       </c>
       <c r="R5">
-        <v>164.0727337348295</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.324512032304414</v>
+        <v>179.9767841306317</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496862373324358E-06</v>
+        <v>0.9544067527038662</v>
       </c>
       <c r="O6">
-        <v>7.416898680581503E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.470483758359481E-06</v>
+        <v>0.9544067527233131</v>
       </c>
       <c r="Q6">
-        <v>-62.07229104453984</v>
+        <v>-0.02321586844300443</v>
       </c>
       <c r="R6">
-        <v>164.0727337348295</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-6.324512032304414</v>
+        <v>179.9767841306317</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10040172907775</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.078766916094696</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.69224171395435</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.34292556127393</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6732923396526</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.495802144856429E-06</v>
+        <v>1.115396510159084</v>
       </c>
       <c r="O3">
-        <v>7.416150884412973E-06</v>
+        <v>0.8910570420388061</v>
       </c>
       <c r="P3">
-        <v>6.468760837815686E-06</v>
+        <v>0.9865772071094233</v>
       </c>
       <c r="Q3">
-        <v>-61.99570711888271</v>
+        <v>23.2197252864579</v>
       </c>
       <c r="R3">
-        <v>164.0759457438821</v>
+        <v>-99.16867920489078</v>
       </c>
       <c r="S3">
-        <v>-6.337515374112917</v>
+        <v>153.518848529537</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7224,55 +7224,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.141564084456036</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.12696713746182</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.18164662915803</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.01309560362888</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>1.49582052953779E-06</v>
+        <v>1.094591529920734</v>
       </c>
       <c r="O4">
-        <v>7.416172362747281E-06</v>
+        <v>0.8020156209369423</v>
       </c>
       <c r="P4">
-        <v>6.468782408219318E-06</v>
+        <v>0.9722753960570768</v>
       </c>
       <c r="Q4">
-        <v>-61.99628546386067</v>
+        <v>21.15704001106631</v>
       </c>
       <c r="R4">
-        <v>164.0758667112061</v>
+        <v>-99.52967390016418</v>
       </c>
       <c r="S4">
-        <v>-6.337426501854016</v>
+        <v>155.972784387714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7316,22 +7316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.495802144965028E-06</v>
+        <v>1.094591529917881</v>
       </c>
       <c r="O5">
-        <v>7.416150884395213E-06</v>
+        <v>0.8020156209380318</v>
       </c>
       <c r="P5">
-        <v>6.468760837717147E-06</v>
+        <v>0.972275396060675</v>
       </c>
       <c r="Q5">
-        <v>-61.99570712109494</v>
+        <v>21.15704001118637</v>
       </c>
       <c r="R5">
-        <v>164.0759457407531</v>
+        <v>-99.52967389965035</v>
       </c>
       <c r="S5">
-        <v>-6.337515376541091</v>
+        <v>155.972784387734</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495802144965028E-06</v>
+        <v>1.09459152991788</v>
       </c>
       <c r="O6">
-        <v>7.416150884395213E-06</v>
+        <v>0.8020156209380318</v>
       </c>
       <c r="P6">
-        <v>6.468760837717147E-06</v>
+        <v>0.9722753960606749</v>
       </c>
       <c r="Q6">
-        <v>-61.99570712109494</v>
+        <v>21.15704001118637</v>
       </c>
       <c r="R6">
-        <v>164.0759457407531</v>
+        <v>-99.52967389965035</v>
       </c>
       <c r="S6">
-        <v>-6.337515376541091</v>
+        <v>155.972784387734</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10040172907775</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.078766916094696</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.69224171395435</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.34292556127393</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6732923396526</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7565,22 +7565,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.495802144856429E-06</v>
+        <v>1.115396510159084</v>
       </c>
       <c r="O3">
-        <v>7.416150884412973E-06</v>
+        <v>0.8910570420388061</v>
       </c>
       <c r="P3">
-        <v>6.468760837815686E-06</v>
+        <v>0.9865772071094233</v>
       </c>
       <c r="Q3">
-        <v>-61.99570711888271</v>
+        <v>23.2197252864579</v>
       </c>
       <c r="R3">
-        <v>164.0759457438821</v>
+        <v>-99.16867920489078</v>
       </c>
       <c r="S3">
-        <v>-6.337515374112917</v>
+        <v>153.518848529537</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7591,55 +7591,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.141564084456036</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.12696713746182</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.18164662915803</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.01309560362888</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>1.49582052953779E-06</v>
+        <v>1.094591529920734</v>
       </c>
       <c r="O4">
-        <v>7.416172362747281E-06</v>
+        <v>0.8020156209369423</v>
       </c>
       <c r="P4">
-        <v>6.468782408219318E-06</v>
+        <v>0.9722753960570768</v>
       </c>
       <c r="Q4">
-        <v>-61.99628546386067</v>
+        <v>21.15704001106631</v>
       </c>
       <c r="R4">
-        <v>164.0758667112061</v>
+        <v>-99.52967390016418</v>
       </c>
       <c r="S4">
-        <v>-6.337426501854016</v>
+        <v>155.972784387714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.495802144965028E-06</v>
+        <v>1.094591529917881</v>
       </c>
       <c r="O5">
-        <v>7.416150884395213E-06</v>
+        <v>0.8020156209380318</v>
       </c>
       <c r="P5">
-        <v>6.468760837717147E-06</v>
+        <v>0.972275396060675</v>
       </c>
       <c r="Q5">
-        <v>-61.99570712109494</v>
+        <v>21.15704001118637</v>
       </c>
       <c r="R5">
-        <v>164.0759457407531</v>
+        <v>-99.52967389965035</v>
       </c>
       <c r="S5">
-        <v>-6.337515376541091</v>
+        <v>155.972784387734</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495802144965028E-06</v>
+        <v>1.09459152991788</v>
       </c>
       <c r="O6">
-        <v>7.416150884395213E-06</v>
+        <v>0.8020156209380318</v>
       </c>
       <c r="P6">
-        <v>6.468760837717147E-06</v>
+        <v>0.9722753960606749</v>
       </c>
       <c r="Q6">
-        <v>-61.99570712109494</v>
+        <v>21.15704001118637</v>
       </c>
       <c r="R6">
-        <v>164.0759457407531</v>
+        <v>-99.52967389965035</v>
       </c>
       <c r="S6">
-        <v>-6.337515376541091</v>
+        <v>155.972784387734</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9824350076611961</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9471205880123984</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60144407933223</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331428</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3666412950151</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7932,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.129973603840213E-06</v>
+        <v>0.99139565658212</v>
       </c>
       <c r="O3">
-        <v>6.863576369806445E-06</v>
+        <v>0.3617201835029483</v>
       </c>
       <c r="P3">
-        <v>1.340885796502618E-06</v>
+        <v>0.7663091644590709</v>
       </c>
       <c r="Q3">
-        <v>-73.92198766250688</v>
+        <v>8.136043998097318</v>
       </c>
       <c r="R3">
-        <v>95.29869666922283</v>
+        <v>-129.091543224182</v>
       </c>
       <c r="S3">
-        <v>179.280353297679</v>
+        <v>169.4399005356892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7958,55 +7958,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.122995861200679</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.115210865755659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.06125002284598</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.97135663852954</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>7.129995958360464E-06</v>
+        <v>0.8677023506123824</v>
       </c>
       <c r="O4">
-        <v>6.863605207037526E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.340853913144937E-06</v>
+        <v>0.8677023506128099</v>
       </c>
       <c r="Q4">
-        <v>-73.92217044258145</v>
+        <v>-0.04120267213262514</v>
       </c>
       <c r="R4">
-        <v>95.2988103678033</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.2803223737303</v>
+        <v>179.958797327515</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8050,22 +8050,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.129973603844352E-06</v>
+        <v>0.8677023506042042</v>
       </c>
       <c r="O5">
-        <v>6.863576369882109E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.340885796437542E-06</v>
+        <v>0.8677023506208762</v>
       </c>
       <c r="Q5">
-        <v>-73.92198766198041</v>
+        <v>-0.04120267122719937</v>
       </c>
       <c r="R5">
-        <v>95.29869667023902</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2803533009886</v>
+        <v>179.9587973266082</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.129973603844352E-06</v>
+        <v>0.8677023506042041</v>
       </c>
       <c r="O6">
-        <v>6.863576369882109E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.340885796437542E-06</v>
+        <v>0.8677023506208762</v>
       </c>
       <c r="Q6">
-        <v>-73.92198766198041</v>
+        <v>-0.04120267122720176</v>
       </c>
       <c r="R6">
-        <v>95.29869667023902</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.2803533009886</v>
+        <v>179.9587973266082</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9824350076611961</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9471205880123984</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60144407933223</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331428</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3666412950151</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.129973603840213E-06</v>
+        <v>0.99139565658212</v>
       </c>
       <c r="O3">
-        <v>6.863576369806445E-06</v>
+        <v>0.3617201835029483</v>
       </c>
       <c r="P3">
-        <v>1.340885796502618E-06</v>
+        <v>0.7663091644590709</v>
       </c>
       <c r="Q3">
-        <v>-73.92198766250688</v>
+        <v>8.136043998097318</v>
       </c>
       <c r="R3">
-        <v>95.29869666922283</v>
+        <v>-129.091543224182</v>
       </c>
       <c r="S3">
-        <v>179.280353297679</v>
+        <v>169.4399005356892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8476,55 +8476,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.122995861200679</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.115210865755659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.06125002284598</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.97135663852954</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>7.129995958360464E-06</v>
+        <v>0.8677023506123824</v>
       </c>
       <c r="O4">
-        <v>6.863605207037526E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.340853913144937E-06</v>
+        <v>0.8677023506128099</v>
       </c>
       <c r="Q4">
-        <v>-73.92217044258145</v>
+        <v>-0.04120267213262514</v>
       </c>
       <c r="R4">
-        <v>95.2988103678033</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.2803223737303</v>
+        <v>179.958797327515</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8568,22 +8568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.129973603844352E-06</v>
+        <v>0.8677023506042042</v>
       </c>
       <c r="O5">
-        <v>6.863576369882109E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.340885796437542E-06</v>
+        <v>0.8677023506208762</v>
       </c>
       <c r="Q5">
-        <v>-73.92198766198041</v>
+        <v>-0.04120267122719937</v>
       </c>
       <c r="R5">
-        <v>95.29869667023902</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2803533009886</v>
+        <v>179.9587973266082</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.129973603844352E-06</v>
+        <v>0.8677023506042041</v>
       </c>
       <c r="O6">
-        <v>6.863576369882109E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.340885796437542E-06</v>
+        <v>0.8677023506208762</v>
       </c>
       <c r="Q6">
-        <v>-73.92198766198041</v>
+        <v>-0.04120267122720176</v>
       </c>
       <c r="R6">
-        <v>95.29869667023902</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.2803533009886</v>
+        <v>179.9587973266082</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001255152234773</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9581045791311112</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9784888211386995</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.57076189778678</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6965661277548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.128656069805815E-06</v>
+        <v>1.017984575314024</v>
       </c>
       <c r="O3">
-        <v>6.862977930334989E-06</v>
+        <v>0.8139299031202517</v>
       </c>
       <c r="P3">
-        <v>1.342575623337183E-06</v>
+        <v>0.8942402102627378</v>
       </c>
       <c r="Q3">
-        <v>-73.90928294678405</v>
+        <v>23.20588444977928</v>
       </c>
       <c r="R3">
-        <v>95.29454863940501</v>
+        <v>-99.65273561736515</v>
       </c>
       <c r="S3">
-        <v>179.3305074644791</v>
+        <v>153.3369734067053</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8843,55 +8843,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9996581259735788</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9857800094878341</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11.54305776256885</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.38280707679106</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>7.128678419238052E-06</v>
+        <v>0.9780425605111904</v>
       </c>
       <c r="O4">
-        <v>6.863006766498368E-06</v>
+        <v>0.701930307793312</v>
       </c>
       <c r="P4">
-        <v>1.342543739391017E-06</v>
+        <v>0.891983970189873</v>
       </c>
       <c r="Q4">
-        <v>-73.90946580171473</v>
+        <v>20.79360530928673</v>
       </c>
       <c r="R4">
-        <v>95.29466236377964</v>
+        <v>-97.63434507041606</v>
       </c>
       <c r="S4">
-        <v>179.3304777678086</v>
+        <v>157.0017532101713</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.128656069721627E-06</v>
+        <v>0.9780425605088438</v>
       </c>
       <c r="O5">
-        <v>6.86297793032316E-06</v>
+        <v>0.701930307799097</v>
       </c>
       <c r="P5">
-        <v>1.342575623208834E-06</v>
+        <v>0.8919839701946116</v>
       </c>
       <c r="Q5">
-        <v>-73.90928294873363</v>
+        <v>20.79360530955269</v>
       </c>
       <c r="R5">
-        <v>95.29454863833931</v>
+        <v>-97.63434506973532</v>
       </c>
       <c r="S5">
-        <v>179.3305074649982</v>
+        <v>157.0017532100611</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128656069721627E-06</v>
+        <v>0.9780425605088439</v>
       </c>
       <c r="O6">
-        <v>6.86297793032316E-06</v>
+        <v>0.701930307799097</v>
       </c>
       <c r="P6">
-        <v>1.342575623208834E-06</v>
+        <v>0.8919839701946116</v>
       </c>
       <c r="Q6">
-        <v>-73.90928294873363</v>
+        <v>20.79360530955269</v>
       </c>
       <c r="R6">
-        <v>95.29454863833931</v>
+        <v>-97.63434506973532</v>
       </c>
       <c r="S6">
-        <v>179.3305074649982</v>
+        <v>157.0017532100611</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001255152234773</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9581045791311112</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9784888211386995</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.57076189778678</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6965661277548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9184,22 +9184,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.128656069805815E-06</v>
+        <v>1.017984575314024</v>
       </c>
       <c r="O3">
-        <v>6.862977930334989E-06</v>
+        <v>0.8139299031202517</v>
       </c>
       <c r="P3">
-        <v>1.342575623337183E-06</v>
+        <v>0.8942402102627378</v>
       </c>
       <c r="Q3">
-        <v>-73.90928294678405</v>
+        <v>23.20588444977928</v>
       </c>
       <c r="R3">
-        <v>95.29454863940501</v>
+        <v>-99.65273561736515</v>
       </c>
       <c r="S3">
-        <v>179.3305074644791</v>
+        <v>153.3369734067053</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9210,55 +9210,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9996581259735788</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9857800094878341</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11.54305776256885</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.38280707679106</v>
       </c>
       <c r="H4">
-        <v>0.5910834297537804</v>
+        <v>0.5918683474348173</v>
       </c>
       <c r="I4">
-        <v>-777.469995316077</v>
+        <v>-777.4762970003299</v>
       </c>
       <c r="J4">
-        <v>9090873877.186825</v>
+        <v>1.113751880286649</v>
       </c>
       <c r="K4">
-        <v>16057.69059583545</v>
+        <v>3.006397543845364</v>
       </c>
       <c r="L4">
-        <v>9090893233.638611</v>
+        <v>1.113751880227916</v>
       </c>
       <c r="M4">
-        <v>-14506.02626428008</v>
+        <v>3.006397543754289</v>
       </c>
       <c r="N4">
-        <v>7.128678419238052E-06</v>
+        <v>0.9780425605111904</v>
       </c>
       <c r="O4">
-        <v>6.863006766498368E-06</v>
+        <v>0.701930307793312</v>
       </c>
       <c r="P4">
-        <v>1.342543739391017E-06</v>
+        <v>0.891983970189873</v>
       </c>
       <c r="Q4">
-        <v>-73.90946580171473</v>
+        <v>20.79360530928673</v>
       </c>
       <c r="R4">
-        <v>95.29466236377964</v>
+        <v>-97.63434507041606</v>
       </c>
       <c r="S4">
-        <v>179.3304777678086</v>
+        <v>157.0017532101713</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9302,22 +9302,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.128656069721627E-06</v>
+        <v>0.9780425605088438</v>
       </c>
       <c r="O5">
-        <v>6.86297793032316E-06</v>
+        <v>0.701930307799097</v>
       </c>
       <c r="P5">
-        <v>1.342575623208834E-06</v>
+        <v>0.8919839701946116</v>
       </c>
       <c r="Q5">
-        <v>-73.90928294873363</v>
+        <v>20.79360530955269</v>
       </c>
       <c r="R5">
-        <v>95.29454863833931</v>
+        <v>-97.63434506973532</v>
       </c>
       <c r="S5">
-        <v>179.3305074649982</v>
+        <v>157.0017532100611</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128656069721627E-06</v>
+        <v>0.9780425605088439</v>
       </c>
       <c r="O6">
-        <v>6.86297793032316E-06</v>
+        <v>0.701930307799097</v>
       </c>
       <c r="P6">
-        <v>1.342575623208834E-06</v>
+        <v>0.8919839701946116</v>
       </c>
       <c r="Q6">
-        <v>-73.90928294873363</v>
+        <v>20.79360530955269</v>
       </c>
       <c r="R6">
-        <v>95.29454863833931</v>
+        <v>-97.63434506973532</v>
       </c>
       <c r="S6">
-        <v>179.3305074649982</v>
+        <v>157.0017532100611</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.938031900957444</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053494350468704</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98965116739703</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201606</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5693903185487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10306,22 +10306,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315480781135</v>
+        <v>1.031611214669994</v>
       </c>
       <c r="O3">
-        <v>7.416880751281505E-06</v>
+        <v>0.291705603751288</v>
       </c>
       <c r="P3">
-        <v>0.952624415924915</v>
+        <v>0.8906876332644358</v>
       </c>
       <c r="Q3">
-        <v>-1.570098140346983E-06</v>
+        <v>7.091324389062285</v>
       </c>
       <c r="R3">
-        <v>164.0728036020161</v>
+        <v>-119.1713773550814</v>
       </c>
       <c r="S3">
-        <v>-179.9998791560808</v>
+        <v>171.7794727726618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10332,55 +10332,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.709154423937111</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.709154423937111</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.82962610251964</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.82962610251964</v>
       </c>
       <c r="H4">
-        <v>0.3136100247502327</v>
+        <v>0.3084960236670934</v>
       </c>
       <c r="I4">
-        <v>-777.473295939555</v>
+        <v>-777.4759689653399</v>
       </c>
       <c r="J4">
-        <v>9090868936.385265</v>
+        <v>0.627731916397327</v>
       </c>
       <c r="K4">
-        <v>-47202.78866291047</v>
+        <v>2.898438698025124</v>
       </c>
       <c r="L4">
-        <v>9090937109.444128</v>
+        <v>0.6277319163585005</v>
       </c>
       <c r="M4">
-        <v>-60387.63450458647</v>
+        <v>2.89843869796924</v>
       </c>
       <c r="N4">
-        <v>0.9526315480870373</v>
+        <v>0.9526279648032102</v>
       </c>
       <c r="O4">
-        <v>7.416902230344108E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526244159159912</v>
+        <v>0.9526279648047542</v>
       </c>
       <c r="Q4">
-        <v>-1.570571175414165E-06</v>
+        <v>-1.288132274128511E-11</v>
       </c>
       <c r="R4">
-        <v>164.0727245871005</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999808</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315480781135</v>
+        <v>0.9526279647942865</v>
       </c>
       <c r="O5">
-        <v>7.416880751316684E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159249151</v>
+        <v>0.9526279648136781</v>
       </c>
       <c r="Q5">
-        <v>-1.570098142339182E-06</v>
+        <v>4.601523003742656E-10</v>
       </c>
       <c r="R5">
-        <v>164.0728036010638</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791560808</v>
+        <v>179.9999999995316</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315480781135</v>
+        <v>0.9526279647942866</v>
       </c>
       <c r="O6">
-        <v>7.416880751316684E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526244159249151</v>
+        <v>0.9526279648136781</v>
       </c>
       <c r="Q6">
-        <v>-1.570098142339182E-06</v>
+        <v>4.601483851772018E-10</v>
       </c>
       <c r="R6">
-        <v>164.0728036010638</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998791560808</v>
+        <v>179.9999999995316</v>
       </c>
     </row>
   </sheetData>
